--- a/Lab3/3E_tabela.xlsx
+++ b/Lab3/3E_tabela.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>T</t>
   </si>
@@ -49,19 +49,87 @@
     <t>1</t>
   </si>
   <si>
-    <t>T'Q(n-1) + T(C'Q(n-1)' + CQ(n-1))</t>
+    <r>
+      <t xml:space="preserve">Q(n) = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C'Q(n-1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Q(n-1)T'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CQ'(n-1)T</t>
+    </r>
+  </si>
+  <si>
+    <t>Z tego trzeba jakoś przekształcić do D.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -73,16 +141,52 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -105,19 +209,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -133,9 +315,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -173,7 +355,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -245,7 +427,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -419,156 +601,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
+      <c r="F4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
+      <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E6" s="4"/>
+      <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E8" s="4"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E9" s="2"/>
+      <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="C6" s="3">
+      <c r="H9" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E10" s="2"/>
+      <c r="F10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="G10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="H10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="F12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F15" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F16" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Lab3/3E_tabela.xlsx
+++ b/Lab3/3E_tabela.xlsx
@@ -116,12 +116,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,17 +294,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
